--- a/Examples/AcPowerSystem/SingleMachineInfiniteBus/SgInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleMachineInfiniteBus/SgInfiniteBus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleMachineInfiniteBus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yg934\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleMachineInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A184D4FC-05E8-4745-AA60-002FB7753859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E258C69D-B52D-4962-986B-6C1BEF9D75F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -249,19 +249,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -270,7 +270,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -278,7 +278,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -286,7 +286,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -315,13 +315,13 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,19 +605,19 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -655,7 +655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2</v>
       </c>
@@ -746,30 +746,30 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.59765625" customWidth="1"/>
-    <col min="3" max="3" width="13.9296875" customWidth="1"/>
-    <col min="4" max="4" width="15.265625" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.46484375" customWidth="1"/>
-    <col min="8" max="8" width="22.265625" customWidth="1"/>
-    <col min="9" max="9" width="24.1328125" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -780,7 +780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2</v>
       </c>
@@ -833,39 +833,39 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -888,16 +888,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="E11" s="1"/>
     </row>
   </sheetData>
@@ -915,22 +915,22 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="14.796875" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -953,7 +953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -987,37 +987,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.53125" customWidth="1"/>
-    <col min="3" max="3" width="14.9296875" customWidth="1"/>
-    <col min="4" max="4" width="15.73046875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1052,26 +1052,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.73046875" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
